--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrooks/Documents/GitHub/EstPi/EstimatingPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7575DE1-10D9-AE46-B46D-307071D580E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43AEE4-3479-DD43-808A-EDB8DD3AFFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37400" yWindow="3140" windowWidth="28040" windowHeight="25320" xr2:uid="{B10D00D9-EA8A-D44E-B07F-20ABFB9336A1}"/>
+    <workbookView xWindow="39640" yWindow="2780" windowWidth="39980" windowHeight="25280" xr2:uid="{B10D00D9-EA8A-D44E-B07F-20ABFB9336A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
   <si>
     <t>Script</t>
   </si>
@@ -85,15 +85,22 @@
   <si>
     <t>PySpark8Part</t>
   </si>
+  <si>
+    <t>PI Value (13 Places)</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="181" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="183" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +143,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,7 +181,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -176,6 +191,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDF1436"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -324,7 +344,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3.1411221333333299</c:v>
@@ -534,7 +554,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$20:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3.1415999999999999</c:v>
@@ -729,10 +749,10 @@
             <c:numRef>
               <c:f>Sheet1!$D$35:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1455500000000001</c:v>
+                  <c:v>3.14159298596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1415890113999998</c:v>
@@ -764,6 +784,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.964044597999999</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1959830570000001</c:v>
                 </c:pt>
@@ -923,7 +946,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1282,7 +1305,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$3:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>3.1411221333333299</c:v>
@@ -1492,7 +1515,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$20:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3.1415999999999999</c:v>
@@ -1687,10 +1710,10 @@
             <c:numRef>
               <c:f>Sheet1!$D$35:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1455500000000001</c:v>
+                  <c:v>3.14159298596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1415890113999998</c:v>
@@ -1722,6 +1745,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1560</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>180</c:v>
                 </c:pt>
@@ -1881,7 +1907,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2254,9 +2280,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:srgbClr val="00B0F0">
                 <a:alpha val="75000"/>
-              </a:schemeClr>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -2268,7 +2294,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$47:$D$51</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.1415444400000001</c:v>
@@ -2350,9 +2376,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="75000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF0000">
+                <a:alpha val="74902"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -2360,11 +2386,32 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000">
+                  <a:alpha val="74902"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D34A-1147-B0AE-BE4871165428}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$43:$D$46</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.1455549999999999</c:v>
@@ -2457,10 +2504,10 @@
             <c:numRef>
               <c:f>Sheet1!$D$35:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00000000000</c:formatCode>
+                <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.1455500000000001</c:v>
+                  <c:v>3.14159298596</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.1415890113999998</c:v>
@@ -2492,6 +2539,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10.964044597999999</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.1959830570000001</c:v>
                 </c:pt>
@@ -2651,7 +2701,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000000000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2893,6 +2943,1781 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Processing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> TIme Compared To Error Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$35:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3237030017119196E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6421897000593617E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7123589699963304E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1106410300019149E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2946410299938833E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.333464103001063E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1326535896997179E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.146535897000426E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.3464103000908665E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9623464103000217E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2653589699676075E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2653589699676075E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9265358969984305E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0734641030021379E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9073464103001037E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.192653589699777E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3073464103001697E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2073464102999587E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3073464103000596E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7073464103001257E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0734641030025784E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6926535896997237E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7926535896999347E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.7052025636995509E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1985358969978108E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9825358969977103E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5932025637003306E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4374535896997109E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0865358969988108E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4825358969969855E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2185358969980555E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3265358969987204E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6726535896998165E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5006535896996418E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark4Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$H$43:$H$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>running</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$43:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9623464103000217E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9565358969986235E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6855896996534909E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8288410300200155E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark16Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$47:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$47:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8213589699752646E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6855896996534909E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8453589699822857E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2465358969989708E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark8Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.150935897000771E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5909589699946167E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-CACD-FF45-9D8F-E5FE3148F324}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1595533040"/>
+        <c:axId val="1234760912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1595533040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time - Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234760912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234760912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.000000000000001E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size (Smaller is more accurate)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595533040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Processing TIme Compared To Error Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Extreme</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Close Up!</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$35:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3237030017119196E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6421897000593617E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7123589699963304E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1106410300019149E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2946410299938833E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.333464103001063E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1326535896997179E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.146535897000426E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln w="6350"/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$20:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$20:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.3464103000908665E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9623464103000217E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2653589699676075E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2653589699676075E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9265358969984305E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0734641030021379E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9073464103001037E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.192653589699777E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3073464103001697E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2073464102999587E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3073464103000596E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7073464103001257E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0734641030025784E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6926535896997237E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7926535896999347E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>4.7052025636995509E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1985358969978108E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9825358969977103E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5932025637003306E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5926535896997329E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4374535896997109E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0865358969988108E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4825358969969855E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2185358969980555E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3265358969987204E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6726535896998165E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5006535896996418E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark4Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$H$43:$H$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>running</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$43:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.9623464103000217E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9565358969986235E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6855896996534909E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8288410300200155E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark16Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$47:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$47:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.8213589699752646E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6855896996534909E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8453589699822857E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2465358969989708E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PySpark8Part</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$52:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$52:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.150935897000771E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5909589699946167E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1415926535896999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DB7B-4541-8CE7-58A5CEE5925F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1595533040"/>
+        <c:axId val="1234760912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1595533040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TIme - Minutes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1234760912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1234760912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.000000000000003E-6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Error Size (Smaller is more accirate)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595533040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4622,16 +6447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>373943</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4233</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231958</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>212075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>67144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4658,16 +6483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>11545</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>256947</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>118662</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>153554</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>237064</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>153555</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4727,6 +6552,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>621489</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>810636</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13510</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDB915B-874D-714B-9279-73246BD2C4F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445851</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>202660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>634998</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>135105</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95CE2587-FF6A-4C49-ADCF-B6560A0BB388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5034,8 +6933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DFCEB-231D-B14E-ADD1-347018ED297B}">
   <dimension ref="B1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5045,13 +6944,19 @@
     <col min="4" max="4" width="28.6640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="28" x14ac:dyDescent="0.3">
       <c r="C1" s="7"/>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11">
+        <v>3.1415926535896999</v>
+      </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -5071,6 +6976,9 @@
       </c>
       <c r="H2" t="s">
         <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5092,6 +7000,10 @@
       </c>
       <c r="H3" s="2">
         <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <f xml:space="preserve"> ABS( $K$1-D3)</f>
+        <v>4.7052025636995509E-4</v>
       </c>
       <c r="N3" s="2"/>
     </row>
@@ -5115,6 +7027,10 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I55" si="0" xml:space="preserve"> ABS( $K$1-D4)</f>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5137,6 +7053,10 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
+      <c r="I5" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1985358969978108E-4</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5159,6 +7079,10 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
+      <c r="I6" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5181,6 +7105,10 @@
       <c r="H7" s="2">
         <v>1.9990000000000001</v>
       </c>
+      <c r="I7" s="10">
+        <f t="shared" si="0"/>
+        <v>6.9825358969977103E-4</v>
+      </c>
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5203,6 +7131,10 @@
       <c r="H8" s="2">
         <v>0.624</v>
       </c>
+      <c r="I8" s="10">
+        <f t="shared" si="0"/>
+        <v>8.5932025637003306E-4</v>
+      </c>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5225,6 +7157,10 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
+      <c r="I9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5247,6 +7183,10 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
+      <c r="I10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5269,6 +7209,10 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
+      <c r="I11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5291,6 +7235,10 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5926535896997329E-3</v>
+      </c>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5313,6 +7261,10 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4374535896997109E-3</v>
+      </c>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5335,6 +7287,10 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0865358969988108E-4</v>
+      </c>
       <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5357,6 +7313,10 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>3.4825358969969855E-4</v>
+      </c>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5379,6 +7339,10 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>5.2185358969980555E-4</v>
+      </c>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5401,6 +7365,10 @@
       <c r="H17" s="2">
         <v>0.42099999999999999</v>
       </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3265358969987204E-4</v>
+      </c>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5423,6 +7391,10 @@
       <c r="H18" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="I18" s="10">
+        <f t="shared" si="0"/>
+        <v>5.6726535896998165E-3</v>
+      </c>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5445,6 +7417,10 @@
       <c r="H19" s="2">
         <v>0.4</v>
       </c>
+      <c r="I19" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5006535896996418E-3</v>
+      </c>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5467,6 +7443,10 @@
       <c r="H20" s="2">
         <v>360</v>
       </c>
+      <c r="I20" s="10">
+        <f t="shared" si="0"/>
+        <v>7.3464103000908665E-6</v>
+      </c>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5489,6 +7469,10 @@
       <c r="H21" s="2">
         <v>0.5</v>
       </c>
+      <c r="I21" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9623464103000217E-3</v>
+      </c>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5511,6 +7495,10 @@
       <c r="H22" s="2">
         <v>77</v>
       </c>
+      <c r="I22" s="10">
+        <f t="shared" si="0"/>
+        <v>9.2653589699676075E-5</v>
+      </c>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5533,6 +7521,10 @@
       <c r="H23" s="2">
         <v>37</v>
       </c>
+      <c r="I23" s="10">
+        <f t="shared" si="0"/>
+        <v>9.2653589699676075E-5</v>
+      </c>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5555,6 +7547,10 @@
       <c r="H24" s="2">
         <v>8</v>
       </c>
+      <c r="I24" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9265358969984305E-4</v>
+      </c>
     </row>
     <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
@@ -5575,6 +7571,10 @@
       </c>
       <c r="H25" s="2">
         <v>0.10199999999999999</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="0"/>
+        <v>9.0734641030021379E-4</v>
       </c>
       <c r="N25" s="2"/>
     </row>
@@ -5598,6 +7598,10 @@
       <c r="H26" s="2">
         <v>1.2E-2</v>
       </c>
+      <c r="I26" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9073464103001037E-3</v>
+      </c>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5620,6 +7624,10 @@
       <c r="H27" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="I27" s="10">
+        <f t="shared" si="0"/>
+        <v>1.192653589699777E-3</v>
+      </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5642,6 +7650,10 @@
       <c r="H28" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
+      <c r="I28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.3073464103001697E-3</v>
+      </c>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5664,6 +7676,10 @@
       <c r="H29" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="I29" s="10">
+        <f t="shared" si="0"/>
+        <v>1.2073464102999587E-3</v>
+      </c>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5686,6 +7702,10 @@
       <c r="H30" s="2">
         <v>0.1</v>
       </c>
+      <c r="I30" s="10">
+        <f t="shared" si="0"/>
+        <v>2.3073464103000596E-3</v>
+      </c>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5708,6 +7728,10 @@
       <c r="H31" s="2">
         <v>0.104</v>
       </c>
+      <c r="I31" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7073464103001257E-3</v>
+      </c>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5730,6 +7754,10 @@
       <c r="H32" s="2">
         <v>0.91</v>
       </c>
+      <c r="I32" s="10">
+        <f t="shared" si="0"/>
+        <v>5.0734641030025784E-4</v>
+      </c>
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5752,6 +7780,10 @@
       <c r="H33" s="2">
         <v>0.1</v>
       </c>
+      <c r="I33" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6926535896997237E-3</v>
+      </c>
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5774,6 +7806,10 @@
       <c r="H34" s="2">
         <v>1E-3</v>
       </c>
+      <c r="I34" s="10">
+        <f t="shared" si="0"/>
+        <v>3.7926535896999347E-3</v>
+      </c>
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5782,16 +7818,24 @@
         <v>12</v>
       </c>
       <c r="D35" s="9">
-        <v>3.1455500000000001</v>
+        <v>3.14159298596</v>
       </c>
       <c r="E35" s="8">
         <v>100000000000</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2"/>
+      <c r="F35" s="6">
+        <v>10.964044597999999</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1560</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="0"/>
+        <v>3.3237030017119196E-7</v>
+      </c>
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5814,6 +7858,10 @@
       <c r="H36" s="2">
         <v>180</v>
       </c>
+      <c r="I36" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6421897000593617E-6</v>
+      </c>
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5836,6 +7884,10 @@
       <c r="H37" s="2">
         <v>15</v>
       </c>
+      <c r="I37" s="10">
+        <f t="shared" si="0"/>
+        <v>1.7123589699963304E-5</v>
+      </c>
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5858,6 +7910,10 @@
       <c r="H38" s="2">
         <v>2</v>
       </c>
+      <c r="I38" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1106410300019149E-5</v>
+      </c>
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5880,6 +7936,10 @@
       <c r="H39" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="I39" s="10">
+        <f t="shared" si="0"/>
+        <v>3.2946410299938833E-5</v>
+      </c>
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5902,6 +7962,10 @@
       <c r="H40" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="I40" s="10">
+        <f t="shared" si="0"/>
+        <v>6.333464103001063E-4</v>
+      </c>
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5924,6 +7988,10 @@
       <c r="H41" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="I41" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1326535896997179E-3</v>
+      </c>
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5946,6 +8014,10 @@
       <c r="H42" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="I42" s="10">
+        <f t="shared" si="0"/>
+        <v>5.146535897000426E-4</v>
+      </c>
       <c r="N42" s="2"/>
     </row>
     <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.2">
@@ -5966,6 +8038,10 @@
       <c r="H43" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="I43" s="10">
+        <f t="shared" si="0"/>
+        <v>3.9623464103000217E-3</v>
+      </c>
     </row>
     <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
@@ -5986,6 +8062,10 @@
       <c r="H44" s="2">
         <v>7</v>
       </c>
+      <c r="I44" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9565358969986235E-4</v>
+      </c>
     </row>
     <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
@@ -6006,6 +8086,10 @@
       <c r="H45" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="I45" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6855896996534909E-6</v>
+      </c>
     </row>
     <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
@@ -6026,6 +8110,10 @@
       <c r="H46" s="2">
         <v>37</v>
       </c>
+      <c r="I46" s="10">
+        <f t="shared" si="0"/>
+        <v>5.8288410300200155E-5</v>
+      </c>
     </row>
     <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
@@ -6046,6 +8134,10 @@
       <c r="H47" s="2">
         <v>3</v>
       </c>
+      <c r="I47" s="10">
+        <f t="shared" si="0"/>
+        <v>4.8213589699752646E-5</v>
+      </c>
     </row>
     <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
@@ -6066,8 +8158,12 @@
       <c r="H48" s="2">
         <v>30</v>
       </c>
+      <c r="I48" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6855896996534909E-6</v>
+      </c>
     </row>
-    <row r="49" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
@@ -6086,8 +8182,12 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
+      <c r="I49" s="10">
+        <f t="shared" si="0"/>
+        <v>7.8453589699822857E-5</v>
+      </c>
     </row>
-    <row r="50" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
@@ -6106,8 +8206,12 @@
       <c r="H50" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="I50" s="10">
+        <f t="shared" si="0"/>
+        <v>4.2465358969989708E-4</v>
+      </c>
     </row>
-    <row r="51" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
@@ -6115,8 +8219,12 @@
       <c r="E51" s="8"/>
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
+      <c r="I51" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1415926535896999</v>
+      </c>
     </row>
-    <row r="52" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
         <v>16</v>
       </c>
@@ -6135,8 +8243,12 @@
       <c r="H52" s="2">
         <v>6</v>
       </c>
+      <c r="I52" s="10">
+        <f t="shared" si="0"/>
+        <v>1.150935897000771E-4</v>
+      </c>
     </row>
-    <row r="53" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
         <v>16</v>
       </c>
@@ -6155,8 +8267,12 @@
       <c r="H53" s="2">
         <v>61</v>
       </c>
+      <c r="I53" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5909589699946167E-5</v>
+      </c>
     </row>
-    <row r="54" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
         <v>16</v>
       </c>
@@ -6164,8 +8280,12 @@
       <c r="E54" s="8"/>
       <c r="F54" s="6"/>
       <c r="G54" s="5"/>
+      <c r="I54" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1415926535896999</v>
+      </c>
     </row>
-    <row r="55" spans="3:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
         <v>16</v>
       </c>
@@ -6173,6 +8293,10 @@
       <c r="E55" s="8"/>
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
+      <c r="I55" s="10">
+        <f t="shared" si="0"/>
+        <v>3.1415926535896999</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:H43">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrooks/Documents/GitHub/EstPi/EstimatingPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC43AEE4-3479-DD43-808A-EDB8DD3AFFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2765D042-3507-594B-83A1-73E0308A2B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39640" yWindow="2780" windowWidth="39980" windowHeight="25280" xr2:uid="{B10D00D9-EA8A-D44E-B07F-20ABFB9336A1}"/>
+    <workbookView xWindow="45120" yWindow="1460" windowWidth="39980" windowHeight="25280" activeTab="1" xr2:uid="{B10D00D9-EA8A-D44E-B07F-20ABFB9336A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="17">
   <si>
     <t>Script</t>
-  </si>
-  <si>
-    <t>Running</t>
-  </si>
-  <si>
-    <t>running</t>
   </si>
   <si>
     <t>Failure</t>
@@ -100,7 +95,7 @@
     <numFmt numFmtId="181" formatCode="0.0000000000000"/>
     <numFmt numFmtId="183" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,13 +106,6 @@
     <font>
       <sz val="14"/>
       <color rgb="FF1B2329"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF0B7FAD"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -169,21 +157,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2414,7 +2401,7 @@
                 <c:formatCode>0.000000000000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.1455549999999999</c:v>
+                  <c:v>3.14159225568</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.141397</c:v>
@@ -2434,6 +2421,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.202319331000002</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>7.8563188000000006E-2</c:v>
                 </c:pt>
@@ -3382,24 +3372,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$H$43:$H$46</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>running</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -3408,7 +3399,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.9623464103000217E-3</c:v>
+                  <c:v>3.9790969985631364E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.9565358969986235E-4</c:v>
@@ -3565,6 +3556,12 @@
                 <c:pt idx="1">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3581,10 +3578,10 @@
                   <c:v>2.5909589699946167E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1415926535896999</c:v>
+                  <c:v>3.6239303002894019E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1415926535896999</c:v>
+                  <c:v>7.4842102999461702E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,24 +4299,25 @@
             <a:effectLst/>
           </c:spPr>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$H$43:$H$46</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>running</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4328,7 +4326,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.9623464103000217E-3</c:v>
+                  <c:v>3.9790969985631364E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.9565358969986235E-4</c:v>
@@ -4485,6 +4483,12 @@
                 <c:pt idx="1">
                   <c:v>61</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>5760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4501,10 +4505,10 @@
                   <c:v>2.5909589699946167E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1415926535896999</c:v>
+                  <c:v>3.6239303002894019E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1415926535896999</c:v>
+                  <c:v>7.4842102999461702E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6933,15 +6937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7DFCEB-231D-B14E-ADD1-347018ED297B}">
   <dimension ref="B1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
@@ -6950,11 +6954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="28" x14ac:dyDescent="0.3">
-      <c r="C1" s="7"/>
+      <c r="C1" s="6"/>
       <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="11">
+        <v>15</v>
+      </c>
+      <c r="K1" s="10">
         <v>3.1415926535896999</v>
       </c>
     </row>
@@ -6963,45 +6967,45 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8">
         <v>3.1411221333333299</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>15000000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>60.522108699999897</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <f xml:space="preserve"> ABS( $K$1-D3)</f>
         <v>4.7052025636995509E-4</v>
       </c>
@@ -7010,24 +7014,24 @@
     <row r="4" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8">
         <v>3.14</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>15000000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>-99</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f t="shared" ref="I4:I55" si="0" xml:space="preserve"> ABS( $K$1-D4)</f>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7036,24 +7040,24 @@
     <row r="5" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="8">
         <v>3.1413728000000001</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>7500000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>30.770127991999999</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
+      <c r="G5" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>2.1985358969978108E-4</v>
       </c>
@@ -7062,24 +7066,24 @@
     <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8">
         <v>3.14</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>750000000</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>-99</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>3</v>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <f t="shared" si="0"/>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7088,24 +7092,24 @@
     <row r="7" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8">
         <v>3.1408944000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>5000000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>19.990082437999899</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>4</v>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H7" s="2">
         <v>1.9990000000000001</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <f t="shared" si="0"/>
         <v>6.9825358969977103E-4</v>
       </c>
@@ -7114,24 +7118,24 @@
     <row r="8" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8">
         <v>3.1407333333333298</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>1500000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>6.2415591040000002</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>4</v>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H8" s="2">
         <v>0.624</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>8.5932025637003306E-4</v>
       </c>
@@ -7140,24 +7144,24 @@
     <row r="9" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8">
         <v>3.14</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>25000000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>-99</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7166,24 +7170,24 @@
     <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8">
         <v>3.14</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>50000000</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>-99</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7192,24 +7196,24 @@
     <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8">
         <v>3.14</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>50000000</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>-99</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>3</v>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7218,24 +7222,24 @@
     <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
         <v>3.14</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>100000000</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>-99</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>3</v>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>1.5926535896997329E-3</v>
       </c>
@@ -7244,24 +7248,24 @@
     <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="9">
+        <v>8</v>
+      </c>
+      <c r="D13" s="8">
         <v>3.1401552000000001</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>10000000</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>40.168918552999997</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>4</v>
+      <c r="G13" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>1.4374535896997109E-3</v>
       </c>
@@ -7270,24 +7274,24 @@
     <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="8">
         <v>3.141184</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>10000000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>40.905564284</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>4</v>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>4.0865358969988108E-4</v>
       </c>
@@ -7296,24 +7300,24 @@
     <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8">
         <v>3.1412444000000002</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>10000000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>40.607457212</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>4</v>
+      <c r="G15" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>3.4825358969969855E-4</v>
       </c>
@@ -7322,24 +7326,24 @@
     <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="9">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
         <v>3.1410708000000001</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>10000000</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>40.692175483</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>4</v>
+      <c r="G16" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>5.2185358969980555E-4</v>
       </c>
@@ -7348,24 +7352,24 @@
     <row r="17" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8">
         <v>3.14086</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>1000000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>4.2071895909999997</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>4</v>
+      <c r="G17" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H17" s="2">
         <v>0.42099999999999999</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>7.3265358969987204E-4</v>
       </c>
@@ -7374,24 +7378,24 @@
     <row r="18" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8">
         <v>3.13592</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>100000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.42203911699999902</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>4</v>
+      <c r="G18" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H18" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>5.6726535896998165E-3</v>
       </c>
@@ -7400,24 +7404,24 @@
     <row r="19" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="8">
         <v>3.1390920000000002</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>1000000</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>4.1755090399999997</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>4</v>
+      <c r="G19" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H19" s="2">
         <v>0.4</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <f t="shared" si="0"/>
         <v>2.5006535896996418E-3</v>
       </c>
@@ -7426,24 +7430,24 @@
     <row r="20" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="9">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8">
         <v>3.1415999999999999</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>500000000</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>416.74900000000002</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>4</v>
+      <c r="G20" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H20" s="2">
         <v>360</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <f t="shared" si="0"/>
         <v>7.3464103000908665E-6</v>
       </c>
@@ -7452,24 +7456,24 @@
     <row r="21" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="9">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8">
         <v>3.1455549999999999</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>500000000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>-99</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>3</v>
+      <c r="G21" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0.5</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>3.9623464103000217E-3</v>
       </c>
@@ -7478,24 +7482,24 @@
     <row r="22" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="9">
+        <v>9</v>
+      </c>
+      <c r="D22" s="8">
         <v>3.1415000000000002</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>100000000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>85.421999999999997</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>4</v>
+      <c r="G22" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H22" s="2">
         <v>77</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>9.2653589699676075E-5</v>
       </c>
@@ -7504,24 +7508,24 @@
     <row r="23" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="9">
+        <v>9</v>
+      </c>
+      <c r="D23" s="8">
         <v>3.1415000000000002</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>50000000</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>41.148000000000003</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>4</v>
+      <c r="G23" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H23" s="2">
         <v>37</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <f t="shared" si="0"/>
         <v>9.2653589699676075E-5</v>
       </c>
@@ -7530,24 +7534,24 @@
     <row r="24" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="9">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8">
         <v>3.141</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>10000000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>8.7750000000000004</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>4</v>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H24" s="2">
         <v>8</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <f t="shared" si="0"/>
         <v>5.9265358969984305E-4</v>
       </c>
@@ -7555,24 +7559,24 @@
     <row r="25" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="9">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
         <v>3.1425000000000001</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>1000000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>1.0229999999999999</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>4</v>
+      <c r="G25" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H25" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>9.0734641030021379E-4</v>
       </c>
@@ -7581,24 +7585,24 @@
     <row r="26" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="9">
+        <v>9</v>
+      </c>
+      <c r="D26" s="8">
         <v>3.1435</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>100000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>0.11600000000000001</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>4</v>
+      <c r="G26" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H26" s="2">
         <v>1.2E-2</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <f t="shared" si="0"/>
         <v>1.9073464103001037E-3</v>
       </c>
@@ -7607,24 +7611,24 @@
     <row r="27" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="9">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8">
         <v>3.1404000000000001</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>1000000</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <v>0.91300000000000003</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>4</v>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H27" s="2">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>1.192653589699777E-3</v>
       </c>
@@ -7633,24 +7637,24 @@
     <row r="28" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9">
+        <v>9</v>
+      </c>
+      <c r="D28" s="8">
         <v>3.1429</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>1000000</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>0.88200000000000001</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>4</v>
+      <c r="G28" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H28" s="2">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <f t="shared" si="0"/>
         <v>1.3073464103001697E-3</v>
       </c>
@@ -7659,24 +7663,24 @@
     <row r="29" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="9">
+        <v>9</v>
+      </c>
+      <c r="D29" s="8">
         <v>3.1427999999999998</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>1000000</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <v>0.872</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>4</v>
+      <c r="G29" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H29" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <f t="shared" si="0"/>
         <v>1.2073464102999587E-3</v>
       </c>
@@ -7685,24 +7689,24 @@
     <row r="30" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="9">
+        <v>9</v>
+      </c>
+      <c r="D30" s="8">
         <v>3.1438999999999999</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>1000000</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>1.002</v>
       </c>
-      <c r="G30" s="5" t="s">
-        <v>4</v>
+      <c r="G30" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H30" s="2">
         <v>0.1</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <f t="shared" si="0"/>
         <v>2.3073464103000596E-3</v>
       </c>
@@ -7711,24 +7715,24 @@
     <row r="31" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="9">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8">
         <v>3.1433</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>1000000</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>1.042</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>4</v>
+      <c r="G31" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H31" s="2">
         <v>0.104</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <f t="shared" si="0"/>
         <v>1.7073464103001257E-3</v>
       </c>
@@ -7737,24 +7741,24 @@
     <row r="32" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="9">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8">
         <v>3.1421000000000001</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>1000000</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>0.91200000000000003</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>4</v>
+      <c r="G32" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H32" s="2">
         <v>0.91</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <f t="shared" si="0"/>
         <v>5.0734641030025784E-4</v>
       </c>
@@ -7763,24 +7767,24 @@
     <row r="33" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="9">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8">
         <v>3.1379000000000001</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>1000000</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <v>1.0549999999999999</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>4</v>
+      <c r="G33" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H33" s="2">
         <v>0.1</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>3.6926535896997237E-3</v>
       </c>
@@ -7789,24 +7793,24 @@
     <row r="34" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="9">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
         <v>3.1377999999999999</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>1000000</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>4</v>
+      <c r="G34" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H34" s="2">
         <v>1E-3</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <f t="shared" si="0"/>
         <v>3.7926535896999347E-3</v>
       </c>
@@ -7815,24 +7819,24 @@
     <row r="35" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="9">
+        <v>10</v>
+      </c>
+      <c r="D35" s="8">
         <v>3.14159298596</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>100000000000</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <v>10.964044597999999</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>4</v>
+      <c r="G35" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H35" s="2">
         <v>1560</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <f t="shared" si="0"/>
         <v>3.3237030017119196E-7</v>
       </c>
@@ -7841,24 +7845,24 @@
     <row r="36" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="9">
+        <v>10</v>
+      </c>
+      <c r="D36" s="8">
         <v>3.1415890113999998</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>10000000000</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>1.1959830570000001</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>4</v>
+      <c r="G36" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H36" s="2">
         <v>180</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <f t="shared" si="0"/>
         <v>3.6421897000593617E-6</v>
       </c>
@@ -7867,24 +7871,24 @@
     <row r="37" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="9">
+        <v>10</v>
+      </c>
+      <c r="D37" s="8">
         <v>3.1415755299999999</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <v>0.135799631</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>4</v>
+      <c r="G37" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H37" s="2">
         <v>15</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <f t="shared" si="0"/>
         <v>1.7123589699963304E-5</v>
       </c>
@@ -7893,24 +7897,24 @@
     <row r="38" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="9">
+        <v>10</v>
+      </c>
+      <c r="D38" s="8">
         <v>3.1416237599999999</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>100000000</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>4.2432697999999797E-2</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>4</v>
+      <c r="G38" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H38" s="2">
         <v>2</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <f t="shared" si="0"/>
         <v>3.1106410300019149E-5</v>
       </c>
@@ -7919,24 +7923,24 @@
     <row r="39" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="9">
+        <v>10</v>
+      </c>
+      <c r="D39" s="8">
         <v>3.1416255999999998</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>10000000</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <v>3.53513779999996E-2</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>4</v>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H39" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <f t="shared" si="0"/>
         <v>3.2946410299938833E-5</v>
       </c>
@@ -7945,24 +7949,24 @@
     <row r="40" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="9">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8">
         <v>3.142226</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>1000000</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>3.3368463000000403E-2</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>4</v>
+      <c r="G40" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H40" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <f t="shared" si="0"/>
         <v>6.333464103001063E-4</v>
       </c>
@@ -7971,24 +7975,24 @@
     <row r="41" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="D41" s="8">
         <v>3.1394600000000001</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>100000</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <v>3.3309298999999903E-2</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>4</v>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H41" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <f t="shared" si="0"/>
         <v>2.1326535896997179E-3</v>
       </c>
@@ -7997,24 +8001,24 @@
     <row r="42" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="9">
+        <v>10</v>
+      </c>
+      <c r="D42" s="8">
         <v>3.1410779999999998</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>1000000</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>3.1376375000000602E-2</v>
       </c>
-      <c r="G42" s="5" t="s">
-        <v>4</v>
+      <c r="G42" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H42" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <f t="shared" si="0"/>
         <v>5.146535897000426E-4</v>
       </c>
@@ -8023,279 +8027,303 @@
     <row r="43" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="9">
-        <v>3.1455549999999999</v>
-      </c>
-      <c r="E43" s="8">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8">
+        <v>3.14159225568</v>
+      </c>
+      <c r="E43" s="7">
         <v>100000000000</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="s">
+      <c r="F43" s="5">
+        <v>17.202319331000002</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="10">
+      <c r="H43" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I43" s="9">
         <f t="shared" si="0"/>
-        <v>3.9623464103000217E-3</v>
+        <v>3.9790969985631364E-7</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="9">
+        <v>11</v>
+      </c>
+      <c r="D44" s="8">
         <v>3.141397</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>10000000</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>7.8563188000000006E-2</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>4</v>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H44" s="2">
         <v>7</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <f t="shared" si="0"/>
         <v>1.9565358969986235E-4</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="9">
+        <v>11</v>
+      </c>
+      <c r="D45" s="8">
         <v>3.1415889680000002</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <v>0.06</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>4</v>
+      <c r="G45" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H45" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <f t="shared" si="0"/>
         <v>3.6855896996534909E-6</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="8">
+        <v>3.1416509420000001</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1000000000</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.26549988599999902</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D46" s="9">
-        <v>3.1416509420000001</v>
-      </c>
-      <c r="E46" s="8">
-        <v>1000000000</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.26549988599999902</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="H46" s="2">
         <v>37</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <f t="shared" si="0"/>
         <v>5.8288410300200155E-5</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="9">
+        <v>12</v>
+      </c>
+      <c r="D47" s="8">
         <v>3.1415444400000001</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>100000000</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <v>5.7828164000000001E-2</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>4</v>
+      <c r="G47" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H47" s="2">
         <v>3</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <f t="shared" si="0"/>
         <v>4.8213589699752646E-5</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="18" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="9">
+        <v>12</v>
+      </c>
+      <c r="D48" s="8">
         <v>3.1415889680000002</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>5.7828164000000001E-2</v>
       </c>
-      <c r="G48" s="5" t="s">
-        <v>15</v>
+      <c r="G48" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="2">
         <v>30</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <f t="shared" si="0"/>
         <v>3.6855896996534909E-6</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="9">
+        <v>12</v>
+      </c>
+      <c r="D49" s="8">
         <v>3.1415142</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>10000000</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <v>3.9172666000000002E-2</v>
       </c>
-      <c r="G49" s="5" t="s">
-        <v>4</v>
+      <c r="G49" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <f t="shared" si="0"/>
         <v>7.8453589699822857E-5</v>
       </c>
     </row>
     <row r="50" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="9">
+        <v>12</v>
+      </c>
+      <c r="D50" s="8">
         <v>3.141168</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="7">
         <v>1000000</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>3.4190887998999997E-2</v>
       </c>
-      <c r="G50" s="5" t="s">
-        <v>4</v>
+      <c r="G50" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H50" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <f t="shared" si="0"/>
         <v>4.2465358969989708E-4</v>
       </c>
     </row>
     <row r="51" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="5"/>
-      <c r="I51" s="10">
+        <v>12</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="I51" s="9">
         <f t="shared" si="0"/>
         <v>3.1415926535896999</v>
       </c>
     </row>
     <row r="52" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="9">
+        <v>14</v>
+      </c>
+      <c r="D52" s="8">
         <v>3.1414775599999998</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>100000000</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>6.9307655000000204E-2</v>
       </c>
-      <c r="G52" s="5" t="s">
-        <v>4</v>
+      <c r="G52" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H52" s="2">
         <v>6</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <f t="shared" si="0"/>
         <v>1.150935897000771E-4</v>
       </c>
     </row>
     <row r="53" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="9">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8">
         <v>3.1415667439999999</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="7">
         <v>1000000000</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <v>0.374642162</v>
       </c>
-      <c r="G53" s="5" t="s">
-        <v>4</v>
+      <c r="G53" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="H53" s="2">
         <v>61</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <f t="shared" si="0"/>
         <v>2.5909589699946167E-5</v>
       </c>
     </row>
     <row r="54" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="I54" s="10">
+        <v>14</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3.1415962775200001</v>
+      </c>
+      <c r="E54" s="7">
+        <v>100000000000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>31.881651908999999</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="2">
+        <v>5760</v>
+      </c>
+      <c r="I54" s="9">
         <f t="shared" si="0"/>
-        <v>3.1415926535896999</v>
+        <v>3.6239303002894019E-6</v>
       </c>
     </row>
     <row r="55" spans="3:9" ht="18" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="5"/>
-      <c r="I55" s="10">
+        <v>14</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3.1416001377999998</v>
+      </c>
+      <c r="E55" s="7">
+        <v>10000000000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>3.2831959620000002</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="2">
+        <v>600</v>
+      </c>
+      <c r="I55" s="9">
         <f t="shared" si="0"/>
-        <v>3.1415926535896999</v>
+        <v>7.4842102999461702E-6</v>
       </c>
     </row>
   </sheetData>
@@ -8305,4 +8333,1242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6739BCE0-E1CC-1240-9524-DC8D9D348B6E}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>3.1411221333333299</v>
+      </c>
+      <c r="C2">
+        <v>15000000</v>
+      </c>
+      <c r="D2">
+        <v>60.522108699999897</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.7052025636995509E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3.14</v>
+      </c>
+      <c r="C3">
+        <v>15000000</v>
+      </c>
+      <c r="D3">
+        <v>-99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3.1413728000000001</v>
+      </c>
+      <c r="C4">
+        <v>7500000</v>
+      </c>
+      <c r="D4">
+        <v>30.770127991999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.1985358969978108E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3.14</v>
+      </c>
+      <c r="C5">
+        <v>750000000</v>
+      </c>
+      <c r="D5">
+        <v>-99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3.1408944000000001</v>
+      </c>
+      <c r="C6">
+        <v>5000000</v>
+      </c>
+      <c r="D6">
+        <v>19.990082437999899</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="G6">
+        <v>6.9825358969977103E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3.1407333333333298</v>
+      </c>
+      <c r="C7">
+        <v>1500000</v>
+      </c>
+      <c r="D7">
+        <v>6.2415591040000002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.624</v>
+      </c>
+      <c r="G7">
+        <v>8.5932025637003306E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3.14</v>
+      </c>
+      <c r="C8">
+        <v>25000000</v>
+      </c>
+      <c r="D8">
+        <v>-99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3.14</v>
+      </c>
+      <c r="C9">
+        <v>50000000</v>
+      </c>
+      <c r="D9">
+        <v>-99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3.14</v>
+      </c>
+      <c r="C10">
+        <v>50000000</v>
+      </c>
+      <c r="D10">
+        <v>-99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3.14</v>
+      </c>
+      <c r="C11">
+        <v>100000000</v>
+      </c>
+      <c r="D11">
+        <v>-99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.5926535896997329E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>3.1401552000000001</v>
+      </c>
+      <c r="C12">
+        <v>10000000</v>
+      </c>
+      <c r="D12">
+        <v>40.168918552999997</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.4374535896997109E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>3.141184</v>
+      </c>
+      <c r="C13">
+        <v>10000000</v>
+      </c>
+      <c r="D13">
+        <v>40.905564284</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.0865358969988108E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>3.1412444000000002</v>
+      </c>
+      <c r="C14">
+        <v>10000000</v>
+      </c>
+      <c r="D14">
+        <v>40.607457212</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.4825358969969855E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>3.1410708000000001</v>
+      </c>
+      <c r="C15">
+        <v>10000000</v>
+      </c>
+      <c r="D15">
+        <v>40.692175483</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>5.2185358969980555E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3.14086</v>
+      </c>
+      <c r="C16">
+        <v>1000000</v>
+      </c>
+      <c r="D16">
+        <v>4.2071895909999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="G16">
+        <v>7.3265358969987204E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>3.13592</v>
+      </c>
+      <c r="C17">
+        <v>100000</v>
+      </c>
+      <c r="D17">
+        <v>0.42203911699999902</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G17">
+        <v>5.6726535896998165E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>3.1390920000000002</v>
+      </c>
+      <c r="C18">
+        <v>1000000</v>
+      </c>
+      <c r="D18">
+        <v>4.1755090399999997</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>2.5006535896996418E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>3.1415999999999999</v>
+      </c>
+      <c r="C19">
+        <v>500000000</v>
+      </c>
+      <c r="D19">
+        <v>416.74900000000002</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>360</v>
+      </c>
+      <c r="G19">
+        <v>7.3464103000908665E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>3.1455549999999999</v>
+      </c>
+      <c r="C20">
+        <v>500000000</v>
+      </c>
+      <c r="D20">
+        <v>-99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>3.9623464103000217E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>3.1415000000000002</v>
+      </c>
+      <c r="C21">
+        <v>100000000</v>
+      </c>
+      <c r="D21">
+        <v>85.421999999999997</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <v>9.2653589699676075E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>3.1415000000000002</v>
+      </c>
+      <c r="C22">
+        <v>50000000</v>
+      </c>
+      <c r="D22">
+        <v>41.148000000000003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>37</v>
+      </c>
+      <c r="G22">
+        <v>9.2653589699676075E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>3.141</v>
+      </c>
+      <c r="C23">
+        <v>10000000</v>
+      </c>
+      <c r="D23">
+        <v>8.7750000000000004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>5.9265358969984305E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>3.1425000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1000000</v>
+      </c>
+      <c r="D24">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G24">
+        <v>9.0734641030021379E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>3.1435</v>
+      </c>
+      <c r="C25">
+        <v>100000</v>
+      </c>
+      <c r="D25">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G25">
+        <v>1.9073464103001037E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>3.1404000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1000000</v>
+      </c>
+      <c r="D26">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.192653589699777E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>3.1429</v>
+      </c>
+      <c r="C27">
+        <v>1000000</v>
+      </c>
+      <c r="D27">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.3073464103001697E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>3.1427999999999998</v>
+      </c>
+      <c r="C28">
+        <v>1000000</v>
+      </c>
+      <c r="D28">
+        <v>0.872</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.2073464102999587E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>3.1438999999999999</v>
+      </c>
+      <c r="C29">
+        <v>1000000</v>
+      </c>
+      <c r="D29">
+        <v>1.002</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29">
+        <v>2.3073464103000596E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>3.1433</v>
+      </c>
+      <c r="C30">
+        <v>1000000</v>
+      </c>
+      <c r="D30">
+        <v>1.042</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.104</v>
+      </c>
+      <c r="G30">
+        <v>1.7073464103001257E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>3.1421000000000001</v>
+      </c>
+      <c r="C31">
+        <v>1000000</v>
+      </c>
+      <c r="D31">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.91</v>
+      </c>
+      <c r="G31">
+        <v>5.0734641030025784E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>3.1379000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1000000</v>
+      </c>
+      <c r="D32">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32">
+        <v>3.6926535896997237E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>3.1377999999999999</v>
+      </c>
+      <c r="C33">
+        <v>1000000</v>
+      </c>
+      <c r="D33">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1E-3</v>
+      </c>
+      <c r="G33">
+        <v>3.7926535896999347E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>3.14159298596</v>
+      </c>
+      <c r="C34">
+        <v>100000000000</v>
+      </c>
+      <c r="D34">
+        <v>10.964044597999999</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1560</v>
+      </c>
+      <c r="G34">
+        <v>3.3237030017119196E-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>3.1415890113999998</v>
+      </c>
+      <c r="C35">
+        <v>10000000000</v>
+      </c>
+      <c r="D35">
+        <v>1.1959830570000001</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>180</v>
+      </c>
+      <c r="G35">
+        <v>3.6421897000593617E-6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>3.1415755299999999</v>
+      </c>
+      <c r="C36">
+        <v>1000000000</v>
+      </c>
+      <c r="D36">
+        <v>0.135799631</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>1.7123589699963304E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>3.1416237599999999</v>
+      </c>
+      <c r="C37">
+        <v>100000000</v>
+      </c>
+      <c r="D37">
+        <v>4.2432697999999797E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>3.1106410300019149E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>3.1416255999999998</v>
+      </c>
+      <c r="C38">
+        <v>10000000</v>
+      </c>
+      <c r="D38">
+        <v>3.53513779999996E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G38">
+        <v>3.2946410299938833E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>3.142226</v>
+      </c>
+      <c r="C39">
+        <v>1000000</v>
+      </c>
+      <c r="D39">
+        <v>3.3368463000000403E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39">
+        <v>6.333464103001063E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>3.1394600000000001</v>
+      </c>
+      <c r="C40">
+        <v>100000</v>
+      </c>
+      <c r="D40">
+        <v>3.3309298999999903E-2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G40">
+        <v>2.1326535896997179E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>3.1410779999999998</v>
+      </c>
+      <c r="C41">
+        <v>1000000</v>
+      </c>
+      <c r="D41">
+        <v>3.1376375000000602E-2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G41">
+        <v>5.146535897000426E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>3.14159225568</v>
+      </c>
+      <c r="C42">
+        <v>100000000000</v>
+      </c>
+      <c r="D42">
+        <v>17.202319331000002</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>3000</v>
+      </c>
+      <c r="G42">
+        <v>3.9790969985631364E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>3.141397</v>
+      </c>
+      <c r="C43">
+        <v>10000000</v>
+      </c>
+      <c r="D43">
+        <v>7.8563188000000006E-2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>1.9565358969986235E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44">
+        <v>3.1415889680000002</v>
+      </c>
+      <c r="C44">
+        <v>1000000000</v>
+      </c>
+      <c r="D44">
+        <v>0.06</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <v>3.6855896996534909E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>3.1416509420000001</v>
+      </c>
+      <c r="C45">
+        <v>1000000000</v>
+      </c>
+      <c r="D45">
+        <v>0.26549988599999902</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>37</v>
+      </c>
+      <c r="G45">
+        <v>5.8288410300200155E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>3.1415444400000001</v>
+      </c>
+      <c r="C46">
+        <v>100000000</v>
+      </c>
+      <c r="D46">
+        <v>5.7828164000000001E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4.8213589699752646E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>3.1415889680000002</v>
+      </c>
+      <c r="C47">
+        <v>1000000000</v>
+      </c>
+      <c r="D47">
+        <v>5.7828164000000001E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>3.6855896996534909E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>3.1415142</v>
+      </c>
+      <c r="C48">
+        <v>10000000</v>
+      </c>
+      <c r="D48">
+        <v>3.9172666000000002E-2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>7.8453589699822857E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>3.141168</v>
+      </c>
+      <c r="C49">
+        <v>1000000</v>
+      </c>
+      <c r="D49">
+        <v>3.4190887998999997E-2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G49">
+        <v>4.2465358969989708E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>3.1414775599999998</v>
+      </c>
+      <c r="C50">
+        <v>100000000</v>
+      </c>
+      <c r="D50">
+        <v>6.9307655000000204E-2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>1.150935897000771E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>3.1415667439999999</v>
+      </c>
+      <c r="C51">
+        <v>1000000000</v>
+      </c>
+      <c r="D51">
+        <v>0.374642162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>61</v>
+      </c>
+      <c r="G51">
+        <v>2.5909589699946167E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>3.1415962775200001</v>
+      </c>
+      <c r="C52">
+        <v>100000000000</v>
+      </c>
+      <c r="D52">
+        <v>31.881651908999999</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52">
+        <v>5760</v>
+      </c>
+      <c r="G52">
+        <v>3.6239303002894019E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>3.1416001377999998</v>
+      </c>
+      <c r="C53">
+        <v>10000000000</v>
+      </c>
+      <c r="D53">
+        <v>3.2831959620000002</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>600</v>
+      </c>
+      <c r="G53">
+        <v>7.4842102999461702E-6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>